--- a/Configdev.xlsx
+++ b/Configdev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\csmapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biomarin\csmapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DC0A19-D2C5-4D3B-82A2-532D4715775D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E092A-67E5-4C1A-9039-F13E4DF32A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1833" yWindow="1833" windowWidth="19200" windowHeight="10074" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program_configuration_parameter" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">flagging!$A$1:$E$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -68,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>CompareProportion</t>
   </si>
@@ -115,9 +113,6 @@
     <t>foldchange</t>
   </si>
   <si>
-    <t>AEGAP</t>
-  </si>
-  <si>
     <t>diff_avg</t>
   </si>
   <si>
@@ -127,12 +122,6 @@
     <t>underdose</t>
   </si>
   <si>
-    <t>RGV</t>
-  </si>
-  <si>
-    <t>RGM</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -145,9 +134,6 @@
     <t>% subj. incidence</t>
   </si>
   <si>
-    <t>AECnt</t>
-  </si>
-  <si>
     <t>cnt/subj</t>
   </si>
   <si>
@@ -163,9 +149,6 @@
     <t>Repeated Vital Sign Values</t>
   </si>
   <si>
-    <t>Vitals</t>
-  </si>
-  <si>
     <t>({values})</t>
   </si>
   <si>
@@ -335,6 +318,9 @@
   </si>
   <si>
     <t>step</t>
+  </si>
+  <si>
+    <t>ae</t>
   </si>
 </sst>
 </file>
@@ -409,27 +395,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,31 +802,31 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" customWidth="1"/>
+    <col min="2" max="2" width="21.41015625" customWidth="1"/>
+    <col min="3" max="3" width="28.703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>41</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -863,9 +838,9 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -877,9 +852,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -891,9 +866,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -905,9 +880,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -931,54 +906,54 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="2" max="3" width="16.29296875" customWidth="1"/>
+    <col min="5" max="5" width="9.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>21</v>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -993,12 +968,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -1019,12 +994,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1045,12 +1020,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1071,14 +1046,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1063,8 @@
       <c r="C7" s="3">
         <v>-1</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>21</v>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -1104,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1156,12 +1131,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3">
         <v>-1</v>
@@ -1194,330 +1169,321 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="36.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.1171875" customWidth="1"/>
+    <col min="2" max="2" width="13.5859375" customWidth="1"/>
+    <col min="3" max="3" width="16.5859375" customWidth="1"/>
+    <col min="4" max="4" width="28.29296875" customWidth="1"/>
+    <col min="5" max="5" width="15.29296875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="17.87890625" customWidth="1"/>
+    <col min="8" max="8" width="27.41015625" customWidth="1"/>
+    <col min="9" max="9" width="23.5859375" customWidth="1"/>
+    <col min="10" max="10" width="24.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="I3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
         <v>-1</v>
       </c>
-      <c r="D2" s="7">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>-2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1528,109 +1494,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="1021" max="1022" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5859375" customWidth="1"/>
+    <col min="2" max="2" width="22.1171875" customWidth="1"/>
+    <col min="1021" max="1022" width="11.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Configdev.xlsx
+++ b/Configdev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biomarin\csmapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E092A-67E5-4C1A-9039-F13E4DF32A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28338666-8342-45DF-8614-B335824D2024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1833" yWindow="1833" windowWidth="19200" windowHeight="10074" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program_configuration_parameter" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>CompareProportion</t>
   </si>
@@ -95,12 +95,6 @@
     <t>min_n_number_betabinom</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>AEI</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>{stdy_avg}</t>
   </si>
   <si>
-    <t>Flag</t>
-  </si>
-  <si>
     <t>potential_issue</t>
   </si>
   <si>
@@ -321,6 +312,9 @@
   </si>
   <si>
     <t>ae</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -812,21 +806,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -840,7 +834,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -854,7 +848,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -868,7 +862,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -882,7 +876,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -906,7 +900,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -918,42 +912,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -970,16 +964,16 @@
     </row>
     <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -996,16 +990,16 @@
     </row>
     <row r="4" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
@@ -1022,16 +1016,16 @@
     </row>
     <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>0.05</v>
@@ -1055,16 +1049,16 @@
     </row>
     <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3">
         <v>-1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -1081,16 +1075,16 @@
     </row>
     <row r="8" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3">
         <v>-1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
@@ -1107,16 +1101,16 @@
     </row>
     <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>-1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3">
         <v>-10</v>
@@ -1133,16 +1127,16 @@
     </row>
     <row r="10" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3">
         <v>-1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3">
         <v>0.05</v>
@@ -1188,42 +1182,42 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
         <v>-1</v>
@@ -1232,28 +1226,28 @@
         <v>-3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3">
         <v>-1</v>
@@ -1262,28 +1256,28 @@
         <v>-2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1292,26 +1286,26 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1320,28 +1314,28 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1350,28 +1344,28 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1380,28 +1374,28 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>-1</v>
@@ -1410,28 +1404,28 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -1440,26 +1434,26 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1468,18 +1462,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1509,90 +1503,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Configdev.xlsx
+++ b/Configdev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biomarin\csmapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28338666-8342-45DF-8614-B335824D2024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2919BA5-C7A5-473F-B80F-C1A02B6227F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
   <si>
     <t>CompareProportion</t>
   </si>
@@ -315,13 +315,37 @@
   </si>
   <si>
     <t>flag</t>
+  </si>
+  <si>
+    <t>paramcd</t>
+  </si>
+  <si>
+    <t>aei, saei, toxgr1, toxgr2, toxgr3, aeij, toxgr1IJ, toxgr2IJ</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>var_1 &lt;- abs(diff_pct)/100*n&gt;{n}</t>
+  </si>
+  <si>
+    <t>var_2 &lt;- diff_pct&gt;{diff_pct}</t>
+  </si>
+  <si>
+    <t>var_3 &lt;- p_value &lt; 0.05  | r=={r}</t>
+  </si>
+  <si>
+    <t>all(var_1 &amp; var_2, var_3)</t>
+  </si>
+  <si>
+    <t>var_2 &lt;- diff_pct&lt;{diff_pct}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -361,6 +385,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -896,11 +926,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -910,7 +940,7 @@
     <col min="5" max="5" width="9.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -935,8 +965,14 @@
       <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -961,8 +997,14 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -987,8 +1029,14 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -1013,8 +1061,14 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -1039,15 +1093,22 @@
       <c r="H5" s="3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
@@ -1072,8 +1133,14 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -1098,8 +1165,14 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
@@ -1116,16 +1189,22 @@
         <v>-10</v>
       </c>
       <c r="F9">
+        <v>-100</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
@@ -1150,9 +1229,16 @@
       <c r="H10" s="3">
         <v>0.01</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Configdev.xlsx
+++ b/Configdev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biomarin\csmapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2919BA5-C7A5-473F-B80F-C1A02B6227F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C2D1D-E4B2-4CDF-B7BE-CCDD0B9954CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,9 +928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
